--- a/DOCUMENTOS/CRONOGRAMA DO PROJETO.xlsx
+++ b/DOCUMENTOS/CRONOGRAMA DO PROJETO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\NOVO GIT ONG\Projeto-ONG\DOCUMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{146BD36A-3899-428C-A2EA-4982D98188FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710F53E2-725C-4A45-AF6D-4A082F8A7AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2910098C-C8C4-46C6-B7BC-CA996E28B137}"/>
+    <workbookView xWindow="-3645" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{2910098C-C8C4-46C6-B7BC-CA996E28B137}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Levantar os requisitos funcionais</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>DIAS</t>
-  </si>
-  <si>
-    <t>Roberto, Leonardo, Jaqueline, Reenye</t>
   </si>
   <si>
     <t>Roberto</t>
@@ -112,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -285,11 +288,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -297,17 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -316,11 +305,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,13 +651,13 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+      <selection activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="20" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
     <col min="4" max="11" width="2" bestFit="1" customWidth="1"/>
     <col min="12" max="24" width="3" bestFit="1" customWidth="1"/>
@@ -658,493 +671,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="10"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="16"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>6</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>7</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>8</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>9</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>11</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>12</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>13</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>14</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>15</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>16</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>17</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>18</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>19</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>20</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>21</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>22</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>23</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>24</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>25</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>26</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>27</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="1">
         <v>28</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="1">
         <v>29</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="1">
         <v>30</v>
       </c>
-      <c r="AG2" s="12">
+      <c r="AG2" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="12"/>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="12"/>
+      <c r="B4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="6"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="12"/>
+      <c r="B5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="6"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="12"/>
+      <c r="B6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="6"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="12"/>
+      <c r="B7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="6"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="12"/>
+      <c r="B8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="6"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="12"/>
+      <c r="B9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="6"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="12"/>
+      <c r="B10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="6"/>
     </row>
-    <row r="11" spans="1:33" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:33" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
